--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -412,33 +412,14 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ar 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -412,14 +412,108 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ar da sala</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ar da cozinha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ar do quarto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tv da sala</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -45,8 +45,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,108 +418,21 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Ar da sala</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ar da cozinha</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ar do quarto</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tv da sala</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,7 +432,29 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -445,13 +445,15 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
-      <c r="E1" t="b">
-        <v>0</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -456,6 +456,42 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -424,7 +424,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,67 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tv</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,122 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" t="b">
         <v>1</v>
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -472,7 +472,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l1</t>
+          <t>l2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -490,60 +490,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l2</t>
+          <t>t1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lâmpada</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>t1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>t2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>68</v>
-      </c>
-      <c r="E6" t="b">
+      <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,57 +454,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Televisor</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>ar2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D1" t="b">
         <v>1</v>
@@ -454,39 +454,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t1</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Lâmpada</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>ae</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Lâmpada</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,80 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ar2</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ae</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>la</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,7 +432,26 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,26 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,7 +432,65 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" t="b">
         <v>0</v>
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="b">
         <v>0</v>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" t="b">
         <v>0</v>
@@ -454,39 +454,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
           <t>tv</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Televisor</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D2" t="n">
         <v>85</v>
       </c>
-      <c r="E3" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" t="b">
         <v>0</v>
@@ -466,10 +466,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lamp1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -463,13 +463,13 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -463,13 +463,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D1" t="b">
         <v>0</v>
@@ -454,39 +454,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tv</t>
+          <t>lamp1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Lâmpada</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lamp1</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lâmpada</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="b">
+      <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/planilhas/objetos.xlsx
+++ b/planilhas/objetos.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,65 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>lamp1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>